--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Itga5.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H2">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N2">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q2">
-        <v>627.6165424745687</v>
+        <v>64.21744907874289</v>
       </c>
       <c r="R2">
-        <v>5648.54888227112</v>
+        <v>577.957041708686</v>
       </c>
       <c r="S2">
-        <v>0.02125104069200897</v>
+        <v>0.00345389543182593</v>
       </c>
       <c r="T2">
-        <v>0.02125104069200897</v>
+        <v>0.003453895431825931</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H3">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>91.709587</v>
       </c>
       <c r="O3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q3">
-        <v>667.9444201551802</v>
+        <v>189.7170343785558</v>
       </c>
       <c r="R3">
-        <v>6011.499781396622</v>
+        <v>1707.453309407002</v>
       </c>
       <c r="S3">
-        <v>0.02261653906818945</v>
+        <v>0.01020381232484304</v>
       </c>
       <c r="T3">
-        <v>0.02261653906818945</v>
+        <v>0.01020381232484304</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H4">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I4">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J4">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N4">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q4">
-        <v>187.0237940949307</v>
+        <v>25.27746453889955</v>
       </c>
       <c r="R4">
-        <v>1683.214146854376</v>
+        <v>227.497180850096</v>
       </c>
       <c r="S4">
-        <v>0.006332609148597009</v>
+        <v>0.001359532658981729</v>
       </c>
       <c r="T4">
-        <v>0.006332609148597009</v>
+        <v>0.001359532658981729</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N5">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O5">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P5">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q5">
-        <v>11060.31390028286</v>
+        <v>3984.374204404961</v>
       </c>
       <c r="R5">
-        <v>99542.82510254573</v>
+        <v>35859.36783964466</v>
       </c>
       <c r="S5">
-        <v>0.3745012517270088</v>
+        <v>0.2142970806331002</v>
       </c>
       <c r="T5">
-        <v>0.3745012517270089</v>
+        <v>0.2142970806331002</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I6">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J6">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>91.709587</v>
       </c>
       <c r="O6">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P6">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q6">
         <v>11771.00100919992</v>
@@ -818,10 +818,10 @@
         <v>105939.0090827993</v>
       </c>
       <c r="S6">
-        <v>0.3985650544612949</v>
+        <v>0.6330959450575842</v>
       </c>
       <c r="T6">
-        <v>0.3985650544612949</v>
+        <v>0.6330959450575843</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I7">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J7">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N7">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O7">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P7">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q7">
-        <v>3295.868941497217</v>
+        <v>1568.341301412593</v>
       </c>
       <c r="R7">
-        <v>29662.82047347496</v>
+        <v>14115.07171271334</v>
       </c>
       <c r="S7">
-        <v>0.1115978312412375</v>
+        <v>0.0843522583690727</v>
       </c>
       <c r="T7">
-        <v>0.1115978312412375</v>
+        <v>0.0843522583690727</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H8">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I8">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J8">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N8">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O8">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P8">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q8">
-        <v>814.3440728790265</v>
+        <v>227.6566652031707</v>
       </c>
       <c r="R8">
-        <v>7329.096655911238</v>
+        <v>2048.909986828537</v>
       </c>
       <c r="S8">
-        <v>0.02757361837821497</v>
+        <v>0.01224437169725941</v>
       </c>
       <c r="T8">
-        <v>0.02757361837821497</v>
+        <v>0.01224437169725941</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H9">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I9">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J9">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>91.709587</v>
       </c>
       <c r="O9">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P9">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q9">
-        <v>866.6702401140575</v>
+        <v>672.5640460414065</v>
       </c>
       <c r="R9">
-        <v>7800.032161026518</v>
+        <v>6053.076414372659</v>
       </c>
       <c r="S9">
-        <v>0.02934537777892193</v>
+        <v>0.03617343758679013</v>
       </c>
       <c r="T9">
-        <v>0.02934537777892193</v>
+        <v>0.03617343758679013</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H10">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I10">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J10">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N10">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O10">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P10">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q10">
-        <v>242.666832215828</v>
+        <v>89.61089803895909</v>
       </c>
       <c r="R10">
-        <v>2184.001489942452</v>
+        <v>806.498082350632</v>
       </c>
       <c r="S10">
-        <v>0.008216677504526471</v>
+        <v>0.004819666240542592</v>
       </c>
       <c r="T10">
-        <v>0.008216677504526471</v>
+        <v>0.004819666240542592</v>
       </c>
     </row>
   </sheetData>
